--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>439.67033253348063</v>
+        <v>439.67033251650378</v>
       </c>
       <c r="C2">
-        <v>403.86409730322572</v>
+        <v>403.86409731916615</v>
       </c>
       <c r="D2">
-        <v>365.3942181886639</v>
+        <v>365.39421822456745</v>
       </c>
       <c r="E2">
-        <v>403.35396401107869</v>
+        <v>403.35396402841889</v>
       </c>
       <c r="F2">
-        <v>394.7946098520988</v>
+        <v>394.79460986411885</v>
       </c>
       <c r="G2">
-        <v>408.93301121409121</v>
+        <v>408.93301122206515</v>
       </c>
       <c r="H2">
-        <v>426.30507613334913</v>
+        <v>426.30507615045013</v>
       </c>
       <c r="I2">
-        <v>466.15296724855546</v>
+        <v>466.15296724972808</v>
       </c>
       <c r="J2">
-        <v>405.85789602119257</v>
+        <v>405.85789605984701</v>
       </c>
       <c r="K2">
-        <v>424.01378661909257</v>
+        <v>424.01378662672613</v>
       </c>
       <c r="L2">
-        <v>451.28968483916003</v>
+        <v>451.2896848559617</v>
       </c>
       <c r="M2">
-        <v>441.59926213267596</v>
+        <v>441.59926212913865</v>
       </c>
       <c r="N2">
-        <v>456.8911465243562</v>
+        <v>456.89114653420205</v>
       </c>
       <c r="O2">
-        <v>387.34516808289015</v>
+        <v>387.34516811258061</v>
       </c>
       <c r="P2">
-        <v>408.72235507614278</v>
+        <v>408.72235506463215</v>
       </c>
       <c r="Q2">
-        <v>472.13634764605916</v>
+        <v>472.13634766386576</v>
       </c>
       <c r="R2">
-        <v>458.35405598167137</v>
+        <v>458.35405600325987</v>
       </c>
       <c r="S2">
-        <v>442.73401204436345</v>
+        <v>442.7340120406995</v>
       </c>
       <c r="T2">
-        <v>464.17801028551804</v>
+        <v>464.17801027326283</v>
       </c>
       <c r="U2">
-        <v>371.33710369767499</v>
+        <v>371.33710371853556</v>
       </c>
       <c r="V2">
-        <v>475.18229939029175</v>
+        <v>475.182299409341</v>
       </c>
       <c r="W2">
-        <v>454.60301194610372</v>
+        <v>454.6030119883734</v>
       </c>
       <c r="X2">
-        <v>380.043212969997</v>
+        <v>380.04321299081016</v>
       </c>
       <c r="Y2">
-        <v>366.93207165243541</v>
+        <v>366.93207167555187</v>
       </c>
       <c r="Z2">
-        <v>379.11245953957314</v>
+        <v>379.11245955512965</v>
       </c>
       <c r="AA2">
-        <v>432.2349316944991</v>
+        <v>432.23493184038023</v>
       </c>
       <c r="AB2">
-        <v>398.0234675280862</v>
+        <v>398.02346757761262</v>
       </c>
       <c r="AC2">
-        <v>368.6987298185191</v>
+        <v>368.69872985646515</v>
       </c>
       <c r="AD2">
-        <v>395.99251761042359</v>
+        <v>395.99251766844964</v>
       </c>
       <c r="AE2">
-        <v>394.30407501530942</v>
+        <v>394.30407502084074</v>
       </c>
       <c r="AF2">
-        <v>405.73116610347614</v>
+        <v>405.73116613193969</v>
       </c>
       <c r="AG2">
-        <v>426.17661817555813</v>
+        <v>426.17661824379286</v>
       </c>
       <c r="AH2">
-        <v>462.29347629770564</v>
+        <v>462.29347632635859</v>
       </c>
       <c r="AI2">
-        <v>397.30677985402559</v>
+        <v>397.3067799079638</v>
       </c>
       <c r="AJ2">
-        <v>426.26234814758186</v>
+        <v>426.26234818277754</v>
       </c>
       <c r="AK2">
-        <v>446.04715699874441</v>
+        <v>446.04715701991779</v>
       </c>
       <c r="AL2">
-        <v>442.42516898643635</v>
+        <v>442.42516902154864</v>
       </c>
       <c r="AM2">
-        <v>455.31249554005831</v>
+        <v>455.3124955684969</v>
       </c>
       <c r="AN2">
-        <v>383.15330722958601</v>
+        <v>383.1533072526862</v>
       </c>
       <c r="AO2">
-        <v>403.89863527369351</v>
+        <v>403.89863533121468</v>
       </c>
       <c r="AP2">
-        <v>466.05931486315649</v>
+        <v>466.05931489213668</v>
       </c>
       <c r="AQ2">
-        <v>461.32564016410305</v>
+        <v>461.32564022036962</v>
       </c>
       <c r="AR2">
-        <v>442.1765372088343</v>
+        <v>442.17653721520821</v>
       </c>
       <c r="AS2">
-        <v>467.95879523380859</v>
+        <v>467.95879531519029</v>
       </c>
       <c r="AT2">
-        <v>363.1619475035742</v>
+        <v>363.16194752986644</v>
       </c>
       <c r="AU2">
-        <v>467.60774096877628</v>
+        <v>467.60774097377077</v>
       </c>
       <c r="AV2">
-        <v>444.8417863319201</v>
+        <v>444.84178643755502</v>
       </c>
       <c r="AW2">
-        <v>380.5700167448897</v>
+        <v>380.57001676145626</v>
       </c>
       <c r="AX2">
-        <v>365.91754323076384</v>
+        <v>365.91754326913963</v>
       </c>
       <c r="AY2">
-        <v>375.46989889783532</v>
+        <v>375.46989892686338</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>435.06649756265546</v>
+        <v>435.06649758288995</v>
       </c>
       <c r="C3">
-        <v>419.20526885754231</v>
+        <v>419.20526887139312</v>
       </c>
       <c r="D3">
-        <v>347.06312036475975</v>
+        <v>347.0631203883882</v>
       </c>
       <c r="E3">
-        <v>403.09703592433692</v>
+        <v>403.09703592406538</v>
       </c>
       <c r="F3">
-        <v>399.13352810010304</v>
+        <v>399.13352812603245</v>
       </c>
       <c r="G3">
-        <v>398.62556392275536</v>
+        <v>398.6255639388275</v>
       </c>
       <c r="H3">
-        <v>424.0847421876133</v>
+        <v>424.08474220083281</v>
       </c>
       <c r="I3">
-        <v>458.42553047820775</v>
+        <v>458.42553048859889</v>
       </c>
       <c r="J3">
-        <v>405.03181389131123</v>
+        <v>405.03181393347944</v>
       </c>
       <c r="K3">
-        <v>408.11999530792326</v>
+        <v>408.11999532929588</v>
       </c>
       <c r="L3">
-        <v>443.71384957723063</v>
+        <v>443.71384960506776</v>
       </c>
       <c r="M3">
-        <v>438.96058446869984</v>
+        <v>438.96058783733855</v>
       </c>
       <c r="N3">
-        <v>460.74879718251327</v>
+        <v>460.74879719978543</v>
       </c>
       <c r="O3">
-        <v>392.41371267853077</v>
+        <v>392.41371269252551</v>
       </c>
       <c r="P3">
-        <v>412.81928659245932</v>
+        <v>412.81928662098437</v>
       </c>
       <c r="Q3">
-        <v>478.32715420317589</v>
+        <v>478.32715422313169</v>
       </c>
       <c r="R3">
-        <v>473.65284784868402</v>
+        <v>473.65284788893786</v>
       </c>
       <c r="S3">
-        <v>448.97674626318019</v>
+        <v>448.97674626599746</v>
       </c>
       <c r="T3">
-        <v>462.36611537449187</v>
+        <v>462.36611539296928</v>
       </c>
       <c r="U3">
-        <v>366.79213637322482</v>
+        <v>366.79213638254612</v>
       </c>
       <c r="V3">
-        <v>462.51792819543357</v>
+        <v>462.51792820716713</v>
       </c>
       <c r="W3">
-        <v>438.72857462121294</v>
+        <v>438.72857465613396</v>
       </c>
       <c r="X3">
-        <v>382.39646665188781</v>
+        <v>382.39646666843043</v>
       </c>
       <c r="Y3">
-        <v>357.49301989678065</v>
+        <v>357.49301992834677</v>
       </c>
       <c r="Z3">
-        <v>378.38881841850116</v>
+        <v>378.3888184333357</v>
       </c>
       <c r="AA3">
-        <v>433.36652128096091</v>
+        <v>433.36652125872672</v>
       </c>
       <c r="AB3">
-        <v>410.93435844409396</v>
+        <v>410.9343584789961</v>
       </c>
       <c r="AC3">
-        <v>353.92407960578367</v>
+        <v>353.92407960868718</v>
       </c>
       <c r="AD3">
-        <v>399.19643196091698</v>
+        <v>399.19643201954977</v>
       </c>
       <c r="AE3">
-        <v>393.51547630943082</v>
+        <v>393.51547632663977</v>
       </c>
       <c r="AF3">
-        <v>397.92744166700476</v>
+        <v>397.92744169638797</v>
       </c>
       <c r="AG3">
-        <v>421.16422597180969</v>
+        <v>421.16422597519693</v>
       </c>
       <c r="AH3">
-        <v>458.21858494034143</v>
+        <v>458.21858499894341</v>
       </c>
       <c r="AI3">
-        <v>389.69180546042151</v>
+        <v>389.69180552069747</v>
       </c>
       <c r="AJ3">
-        <v>420.71751855163484</v>
+        <v>420.71751857923385</v>
       </c>
       <c r="AK3">
-        <v>445.39580302420444</v>
+        <v>445.39580304314546</v>
       </c>
       <c r="AL3">
-        <v>439.10102593672536</v>
+        <v>439.10102595948536</v>
       </c>
       <c r="AM3">
-        <v>456.28044212574093</v>
+        <v>456.28044220366763</v>
       </c>
       <c r="AN3">
-        <v>393.78825207994794</v>
+        <v>393.78825211849102</v>
       </c>
       <c r="AO3">
-        <v>409.10902512617167</v>
+        <v>409.10902515640475</v>
       </c>
       <c r="AP3">
-        <v>477.22536145756646</v>
+        <v>477.22536150088575</v>
       </c>
       <c r="AQ3">
-        <v>465.72376083422256</v>
+        <v>465.72376086389312</v>
       </c>
       <c r="AR3">
-        <v>439.08606393333105</v>
+        <v>439.08606394025014</v>
       </c>
       <c r="AS3">
-        <v>473.11752937609123</v>
+        <v>473.11752944480065</v>
       </c>
       <c r="AT3">
-        <v>366.77040516526557</v>
+        <v>366.77040522098207</v>
       </c>
       <c r="AU3">
-        <v>472.80180661450333</v>
+        <v>472.8018066537652</v>
       </c>
       <c r="AV3">
-        <v>442.48711429850437</v>
+        <v>442.48711438966365</v>
       </c>
       <c r="AW3">
-        <v>383.79743707264151</v>
+        <v>383.79743713673946</v>
       </c>
       <c r="AX3">
-        <v>372.75486915324768</v>
+        <v>372.754869201416</v>
       </c>
       <c r="AY3">
-        <v>371.88270989431078</v>
+        <v>371.8827099041788</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>439.67033251650378</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>403.86409731916615</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>365.39421822456745</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>403.35396402841889</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>394.79460986411885</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>408.93301122206515</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>426.30507615045013</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>466.15296724972808</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>405.85789605984701</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>424.01378662672613</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>451.2896848559617</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>441.59926212913865</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>456.89114653420205</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>387.34516811258061</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>408.72235506463215</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>472.13634766386576</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>458.35405600325987</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>442.7340120406995</v>
+        <v>450.36247848111026</v>
       </c>
       <c r="T2">
         <v>464.17801027326283</v>
@@ -588,55 +477,55 @@
         <v>379.11245955512965</v>
       </c>
       <c r="AA2">
-        <v>432.23493184038023</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>398.02346757761262</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>368.69872985646515</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>395.99251766844964</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>394.30407502084074</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>405.73116613193969</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>426.17661824379286</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>462.29347632635859</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>397.3067799079638</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>426.26234818277754</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>446.04715701991779</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>442.42516902154864</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>455.3124955684969</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>383.1533072526862</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>403.89863533121468</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>466.05931489213668</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>461.32564022036962</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>442.17653721520821</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>435.06649758288995</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>419.20526887139312</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>347.0631203883882</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>403.09703592406538</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>399.13352812603245</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>398.6255639388275</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>424.08474220083281</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>458.42553048859889</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>405.03181393347944</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>408.11999532929588</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>443.71384960506776</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>438.96058783733855</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>460.74879719978543</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>392.41371269252551</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>412.81928662098437</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>478.32715422313169</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>473.65284788893786</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>448.97674626599746</v>
@@ -743,55 +629,55 @@
         <v>378.3888184333357</v>
       </c>
       <c r="AA3">
-        <v>433.36652125872672</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>410.9343584789961</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>353.92407960868718</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>399.19643201954977</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>393.51547632663977</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>397.92744169638797</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>421.16422597519693</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>458.21858499894341</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>389.69180552069747</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>420.71751857923385</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>445.39580304314546</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>439.10102595948536</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>456.28044220366763</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>393.78825211849102</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>409.10902515640475</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>477.22536150088575</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>465.72376086389312</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>439.08606394025014</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>439.67033253348063</v>
+        <v>387.34516811258061</v>
       </c>
       <c r="C2">
-        <v>406.30643405012427</v>
+        <v>458.35405600325987</v>
       </c>
       <c r="D2">
-        <v>365.3942181886639</v>
+        <v>383.1533072526862</v>
       </c>
       <c r="E2">
-        <v>403.35396401107869</v>
+        <v>461.32564022036962</v>
       </c>
       <c r="F2">
         <v>394.7946098520988</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>435.06649756265546</v>
+        <v>387.17347803187351</v>
       </c>
       <c r="C3">
-        <v>419.20526885754231</v>
+        <v>473.65284788893786</v>
       </c>
       <c r="D3">
-        <v>347.06312036475975</v>
+        <v>392.6553446345344</v>
       </c>
       <c r="E3">
-        <v>403.09703592433692</v>
+        <v>464.74641813881294</v>
       </c>
       <c r="F3">
         <v>399.13352810010304</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>439.67033253348063</v>
+        <v>457.7521169658944</v>
       </c>
       <c r="C2">
-        <v>406.30643405012427</v>
+        <v>387.34516811258061</v>
       </c>
       <c r="D2">
-        <v>365.3942181886639</v>
+        <v>455.3124955684969</v>
       </c>
       <c r="E2">
-        <v>403.35396401107869</v>
+        <v>383.1533072526862</v>
       </c>
       <c r="F2">
         <v>394.7946098520988</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>435.06649756265546</v>
+        <v>460.74879719978543</v>
       </c>
       <c r="C3">
-        <v>419.20526885754231</v>
+        <v>387.17347803187351</v>
       </c>
       <c r="D3">
-        <v>347.06312036475975</v>
+        <v>456.28044220366763</v>
       </c>
       <c r="E3">
-        <v>397.37821769891207</v>
+        <v>392.6553446345344</v>
       </c>
       <c r="F3">
         <v>399.13352810010304</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>439.67033251650378</v>
+      </c>
+      <c r="C2">
+        <v>406.30643406497074</v>
+      </c>
+      <c r="D2">
+        <v>365.39421822456745</v>
+      </c>
+      <c r="E2">
+        <v>403.35396402841889</v>
+      </c>
+      <c r="F2">
+        <v>394.79460986411885</v>
+      </c>
+      <c r="G2">
+        <v>405.34660113636261</v>
+      </c>
+      <c r="H2">
+        <v>426.30507615045013</v>
+      </c>
+      <c r="I2">
+        <v>462.25285221810827</v>
+      </c>
+      <c r="J2">
+        <v>405.85789605984701</v>
+      </c>
+      <c r="K2">
+        <v>424.01378662672613</v>
+      </c>
+      <c r="L2">
+        <v>450.21204437005747</v>
+      </c>
+      <c r="M2">
+        <v>435.108547531564</v>
+      </c>
+      <c r="N2">
         <v>457.7521169658944</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>387.34516811258061</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>407.37440743974332</v>
+      </c>
+      <c r="Q2">
+        <v>472.13634766386576</v>
+      </c>
+      <c r="R2">
+        <v>458.35405600325987</v>
+      </c>
+      <c r="T2">
+        <v>467.28918554578007</v>
+      </c>
+      <c r="U2">
+        <v>371.33710371853556</v>
+      </c>
+      <c r="V2">
+        <v>472.28743027178831</v>
+      </c>
+      <c r="W2">
+        <v>454.6030119883734</v>
+      </c>
+      <c r="X2">
+        <v>380.04321299081016</v>
+      </c>
+      <c r="Y2">
+        <v>366.93207167555187</v>
+      </c>
+      <c r="Z2">
+        <v>379.11245955512965</v>
+      </c>
+      <c r="AA2">
+        <v>432.23493184038023</v>
+      </c>
+      <c r="AB2">
+        <v>398.02346757761262</v>
+      </c>
+      <c r="AC2">
+        <v>368.69872985646515</v>
+      </c>
+      <c r="AD2">
+        <v>395.99251766844964</v>
+      </c>
+      <c r="AE2">
+        <v>394.30407502084074</v>
+      </c>
+      <c r="AF2">
+        <v>405.73116613193969</v>
+      </c>
+      <c r="AG2">
+        <v>426.17661824379286</v>
+      </c>
+      <c r="AH2">
+        <v>462.29347632635859</v>
+      </c>
+      <c r="AI2">
+        <v>397.3067799079638</v>
+      </c>
+      <c r="AJ2">
+        <v>426.26234818277754</v>
+      </c>
+      <c r="AK2">
+        <v>446.04715701991779</v>
+      </c>
+      <c r="AL2">
+        <v>442.42516902154864</v>
+      </c>
+      <c r="AM2">
         <v>455.3124955684969</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>383.1533072526862</v>
       </c>
-      <c r="F2">
-        <v>394.7946098520988</v>
-      </c>
-      <c r="G2">
-        <v>405.34660113557436</v>
-      </c>
-      <c r="H2">
-        <v>426.30507613334913</v>
-      </c>
-      <c r="I2">
-        <v>462.25285222919803</v>
-      </c>
-      <c r="J2">
-        <v>405.85789602119257</v>
-      </c>
-      <c r="K2">
-        <v>424.01378661909257</v>
-      </c>
-      <c r="L2">
-        <v>450.21204434121819</v>
-      </c>
-      <c r="M2">
-        <v>435.10854753924656</v>
-      </c>
-      <c r="N2">
-        <v>457.75211694697867</v>
-      </c>
-      <c r="O2">
-        <v>387.34516808289015</v>
-      </c>
-      <c r="P2">
-        <v>407.37440744290154</v>
-      </c>
-      <c r="Q2">
-        <v>472.13634764605916</v>
-      </c>
-      <c r="R2">
-        <v>458.35405598167137</v>
-      </c>
-      <c r="T2">
-        <v>467.28918555216052</v>
-      </c>
-      <c r="U2">
-        <v>371.33710369767499</v>
-      </c>
-      <c r="V2">
-        <v>472.28743024185889</v>
-      </c>
-      <c r="W2">
-        <v>454.60301194610372</v>
-      </c>
-      <c r="X2">
-        <v>380.043212969997</v>
-      </c>
-      <c r="Y2">
-        <v>366.93207165243541</v>
-      </c>
-      <c r="Z2">
-        <v>379.11245953957314</v>
-      </c>
-      <c r="AA2">
-        <v>432.2349316944991</v>
-      </c>
-      <c r="AB2">
-        <v>398.0234675280862</v>
-      </c>
-      <c r="AC2">
-        <v>368.6987298185191</v>
-      </c>
-      <c r="AD2">
-        <v>395.99251761042359</v>
-      </c>
-      <c r="AE2">
-        <v>394.30407501530942</v>
-      </c>
-      <c r="AF2">
-        <v>405.73116610347614</v>
-      </c>
-      <c r="AG2">
-        <v>426.17661817555813</v>
-      </c>
-      <c r="AH2">
-        <v>462.29347629770564</v>
-      </c>
-      <c r="AI2">
-        <v>397.30677985402559</v>
-      </c>
-      <c r="AJ2">
-        <v>426.26234814758186</v>
-      </c>
-      <c r="AK2">
-        <v>446.04715699874441</v>
-      </c>
-      <c r="AL2">
-        <v>442.42516898643635</v>
-      </c>
-      <c r="AM2">
-        <v>455.31249554005831</v>
-      </c>
-      <c r="AN2">
-        <v>383.15330722958601</v>
-      </c>
       <c r="AO2">
-        <v>403.89863527369351</v>
+        <v>403.89863533121468</v>
       </c>
       <c r="AP2">
-        <v>464.04188043381606</v>
+        <v>464.0418804576413</v>
       </c>
       <c r="AQ2">
-        <v>461.32564016410305</v>
+        <v>461.32564022036962</v>
       </c>
       <c r="AR2">
-        <v>442.1765372088343</v>
+        <v>442.17653721520821</v>
       </c>
       <c r="AS2">
-        <v>467.95879523380859</v>
+        <v>467.95879531519029</v>
       </c>
       <c r="AT2">
-        <v>363.1619475035742</v>
+        <v>363.16194752986644</v>
       </c>
       <c r="AU2">
-        <v>473.22983172603773</v>
+        <v>473.22983171725576</v>
       </c>
       <c r="AV2">
-        <v>444.8417863319201</v>
+        <v>444.84178643755502</v>
       </c>
       <c r="AW2">
-        <v>380.5700167448897</v>
+        <v>380.57001676145626</v>
       </c>
       <c r="AX2">
-        <v>365.91754323076384</v>
+        <v>365.91754326913963</v>
       </c>
       <c r="AY2">
-        <v>375.46989889783532</v>
+        <v>375.46989892686338</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>435.06649758288995</v>
+      </c>
+      <c r="C3">
+        <v>419.20526887139312</v>
+      </c>
+      <c r="D3">
+        <v>347.0631203883882</v>
+      </c>
+      <c r="E3">
+        <v>397.37821769837456</v>
+      </c>
+      <c r="F3">
+        <v>399.13352812603245</v>
+      </c>
+      <c r="G3">
+        <v>398.6255639388275</v>
+      </c>
+      <c r="H3">
+        <v>424.08474220083281</v>
+      </c>
+      <c r="I3">
+        <v>458.42553048859889</v>
+      </c>
+      <c r="J3">
+        <v>405.03181393347944</v>
+      </c>
+      <c r="K3">
+        <v>409.30093576895763</v>
+      </c>
+      <c r="L3">
+        <v>443.71384960506776</v>
+      </c>
+      <c r="M3">
+        <v>442.91837776662857</v>
+      </c>
+      <c r="N3">
         <v>460.74879719978543</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>387.17347803187351</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>412.81928662098437</v>
+      </c>
+      <c r="Q3">
+        <v>478.32715422313169</v>
+      </c>
+      <c r="R3">
+        <v>473.65284788893786</v>
+      </c>
+      <c r="S3">
+        <v>448.97674626599746</v>
+      </c>
+      <c r="T3">
+        <v>462.36611539296928</v>
+      </c>
+      <c r="U3">
+        <v>366.79213638254612</v>
+      </c>
+      <c r="V3">
+        <v>460.86478964166969</v>
+      </c>
+      <c r="W3">
+        <v>438.72857465613396</v>
+      </c>
+      <c r="X3">
+        <v>382.39646666843043</v>
+      </c>
+      <c r="Y3">
+        <v>357.49301992834677</v>
+      </c>
+      <c r="Z3">
+        <v>378.3888184333357</v>
+      </c>
+      <c r="AA3">
+        <v>433.36652125872672</v>
+      </c>
+      <c r="AB3">
+        <v>410.9343584789961</v>
+      </c>
+      <c r="AC3">
+        <v>353.92407960868718</v>
+      </c>
+      <c r="AD3">
+        <v>399.19643201954977</v>
+      </c>
+      <c r="AE3">
+        <v>393.51547632663977</v>
+      </c>
+      <c r="AF3">
+        <v>397.92744169638797</v>
+      </c>
+      <c r="AG3">
+        <v>421.16422597519693</v>
+      </c>
+      <c r="AH3">
+        <v>458.21858499894341</v>
+      </c>
+      <c r="AI3">
+        <v>411.40419294263359</v>
+      </c>
+      <c r="AJ3">
+        <v>420.71751857923385</v>
+      </c>
+      <c r="AK3">
+        <v>445.39580304314546</v>
+      </c>
+      <c r="AL3">
+        <v>439.10102595948536</v>
+      </c>
+      <c r="AM3">
         <v>456.28044220366763</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>392.6553446345344</v>
       </c>
-      <c r="F3">
-        <v>399.13352810010304</v>
-      </c>
-      <c r="G3">
-        <v>398.62556392275536</v>
-      </c>
-      <c r="H3">
-        <v>424.0847421876133</v>
-      </c>
-      <c r="I3">
-        <v>458.42553047820775</v>
-      </c>
-      <c r="J3">
-        <v>405.03181389131123</v>
-      </c>
-      <c r="K3">
-        <v>409.30093574106718</v>
-      </c>
-      <c r="L3">
-        <v>443.71384957723063</v>
-      </c>
-      <c r="M3">
-        <v>442.91834682485131</v>
-      </c>
-      <c r="N3">
-        <v>460.74879718251327</v>
-      </c>
-      <c r="O3">
-        <v>387.17347800643159</v>
-      </c>
-      <c r="P3">
-        <v>412.81928659245932</v>
-      </c>
-      <c r="Q3">
-        <v>478.32715420317589</v>
-      </c>
-      <c r="R3">
-        <v>473.65284784868402</v>
-      </c>
-      <c r="S3">
-        <v>448.97674626318019</v>
-      </c>
-      <c r="T3">
-        <v>462.36611537449187</v>
-      </c>
-      <c r="U3">
-        <v>366.79213637322482</v>
-      </c>
-      <c r="V3">
-        <v>460.8647896355339</v>
-      </c>
-      <c r="W3">
-        <v>438.72857462121294</v>
-      </c>
-      <c r="X3">
-        <v>382.39646665188781</v>
-      </c>
-      <c r="Y3">
-        <v>357.49301989678065</v>
-      </c>
-      <c r="Z3">
-        <v>378.38881841850116</v>
-      </c>
-      <c r="AA3">
-        <v>433.36652128096091</v>
-      </c>
-      <c r="AB3">
-        <v>410.93435844409396</v>
-      </c>
-      <c r="AC3">
-        <v>353.92407960578367</v>
-      </c>
-      <c r="AD3">
-        <v>399.19643196091698</v>
-      </c>
-      <c r="AE3">
-        <v>393.51547630943082</v>
-      </c>
-      <c r="AF3">
-        <v>397.92744166700476</v>
-      </c>
-      <c r="AG3">
-        <v>421.16422597180969</v>
-      </c>
-      <c r="AH3">
-        <v>458.21858494034143</v>
-      </c>
-      <c r="AI3">
-        <v>411.40419287354689</v>
-      </c>
-      <c r="AJ3">
-        <v>420.71751855163484</v>
-      </c>
-      <c r="AK3">
-        <v>445.39580302420444</v>
-      </c>
-      <c r="AL3">
-        <v>439.10102593672536</v>
-      </c>
-      <c r="AM3">
-        <v>456.28044212574093</v>
-      </c>
-      <c r="AN3">
-        <v>392.65534458787596</v>
-      </c>
       <c r="AO3">
-        <v>409.10902512617167</v>
+        <v>409.10902515640475</v>
       </c>
       <c r="AP3">
-        <v>477.22536145756646</v>
+        <v>477.22536150088575</v>
       </c>
       <c r="AQ3">
-        <v>464.74641813082849</v>
+        <v>464.74641813881294</v>
       </c>
       <c r="AR3">
-        <v>439.08606393333105</v>
+        <v>439.08606394025014</v>
       </c>
       <c r="AS3">
-        <v>473.11752937609123</v>
+        <v>473.11752944480065</v>
       </c>
       <c r="AT3">
-        <v>366.77040516526557</v>
+        <v>366.77040522098207</v>
       </c>
       <c r="AU3">
-        <v>471.40429103554243</v>
+        <v>471.40429104749717</v>
       </c>
       <c r="AV3">
-        <v>442.48711429850437</v>
+        <v>442.48711438966365</v>
       </c>
       <c r="AW3">
-        <v>383.79743707264151</v>
+        <v>383.79743713673946</v>
       </c>
       <c r="AX3">
-        <v>372.75486915324768</v>
+        <v>372.754869201416</v>
       </c>
       <c r="AY3">
-        <v>371.88270989431078</v>
+        <v>371.8827099041788</v>
       </c>
     </row>
   </sheetData>
